--- a/Game/Content/Files/mapLevels_mission_List.xlsx
+++ b/Game/Content/Files/mapLevels_mission_List.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19cu0236\GitH\Fuku\Game\Content\Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="10728"/>
   </bookViews>
   <sheets>
     <sheet name="mission_List_New" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MapID</t>
     <phoneticPr fontId="18"/>
@@ -40,16 +35,20 @@
     <t>(1,2,3,4,5)</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>(1,3,5)</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -57,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -65,7 +64,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -74,7 +73,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -83,7 +82,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -92,7 +91,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -100,7 +99,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -108,7 +107,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -116,7 +115,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -124,7 +123,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -133,7 +132,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -142,7 +141,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -150,7 +149,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -159,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -167,7 +166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -176,7 +175,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -185,7 +184,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -193,14 +192,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -666,19 +665,19 @@
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -771,7 +770,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -948,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -962,14 +961,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1011,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1028,10 +1027,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
